--- a/CurriculumManagementSystemWebAPI/Curriculum.xlsx
+++ b/CurriculumManagementSystemWebAPI/Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FULearning\Fall2023\SEP490\CurriculumManagementSystem_BE\CurriculumManagementSystemWebAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71E7A8-6DD4-4C9D-8EC0-F541E99F7F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A66BA-C352-4550-9C5F-821C40C32A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>KHUNG CHƯƠNG TRÌNH ĐÀO TẠO CAO ĐẲNG</t>
-  </si>
-  <si>
-    <t>Trình độ: Cao đẳng</t>
-  </si>
-  <si>
-    <t>Hình thức: Chính quy</t>
   </si>
   <si>
     <t>TT</t>
@@ -399,6 +393,12 @@
   </si>
   <si>
     <t>Chuyên ngành: {{specialization_name}} ({{specialization_english_name}}) {{Combo}}</t>
+  </si>
+  <si>
+    <t>Trình độ: {{degree_level}}</t>
+  </si>
+  <si>
+    <t>Hình thức: {{formality}}</t>
   </si>
 </sst>
 </file>
@@ -672,12 +672,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,18 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,7 +989,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M4"/>
+      <selection activeCell="B8" sqref="B8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,60 +1000,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="A2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="B3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1069,25 +1069,25 @@
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -1104,7 +1104,7 @@
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="29" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -1121,7 +1121,7 @@
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="29" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -1152,195 +1152,195 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="M10" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="C12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="F12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="K12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="M12" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="F14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="26" t="s">
+      <c r="L14" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="M14" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1354,16 +1354,16 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1383,22 +1383,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1415,16 +1415,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="B19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -1433,7 +1433,7 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -1449,16 +1449,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
-      <c r="B21" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -1467,7 +1467,7 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -1483,16 +1483,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
-      <c r="B23" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="B23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -1501,7 +1501,7 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -1518,7 +1518,7 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -1535,7 +1535,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -1552,7 +1552,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -1569,7 +1569,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -1585,14 +1585,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B28:I28"/>
@@ -1609,6 +1601,14 @@
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1642,7 +1642,7 @@
     <row r="3" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>0</v>
@@ -1659,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,13 +1673,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1687,13 +1687,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1729,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1743,13 +1743,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1784,10 +1784,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1796,10 +1796,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,13 +1807,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
